--- a/Calculations/Имитатор панели.xlsx
+++ b/Calculations/Имитатор панели.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\HEVEL\MPPT_controller\Calculations\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="120" yWindow="15" windowWidth="23820" windowHeight="10620"/>
   </bookViews>
@@ -11,7 +16,7 @@
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
@@ -21,7 +26,7 @@
     <author>Tikhonov Eugene</author>
   </authors>
   <commentList>
-    <comment ref="B17" authorId="0">
+    <comment ref="B17" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -43,11 +48,11 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Udc/Ipv</t>
+Udc/Ipv_кз</t>
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0">
+    <comment ref="B18" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -74,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0">
+    <comment ref="B24" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -100,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0">
+    <comment ref="B25" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -126,7 +131,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0">
+    <comment ref="B26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -152,7 +157,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0">
+    <comment ref="D26" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -183,7 +188,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
   <si>
     <t>Rpar=</t>
   </si>
@@ -282,13 +287,16 @@
   </si>
   <si>
     <t>параллельное</t>
+  </si>
+  <si>
+    <t>Urs=</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -368,20 +376,41 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
   <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
   <c:chart>
     <c:title>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
+    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
@@ -398,10 +427,10 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>7.8</c:v>
+                  <c:v>21</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>9.5</c:v>
+                  <c:v>25.49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -413,10 +442,10 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
-                  <c:v>8.9</c:v>
+                  <c:v>8.7899999999999991</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>8.5</c:v>
+                  <c:v>8.2200000000000006</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
@@ -424,32 +453,47 @@
               </c:numCache>
             </c:numRef>
           </c:yVal>
+          <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="79064064"/>
-        <c:axId val="79062528"/>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="309576840"/>
+        <c:axId val="309577232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="79064064"/>
+        <c:axId val="309576840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79062528"/>
+        <c:crossAx val="309577232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="79062528"/>
+        <c:axId val="309577232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
+        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="79064064"/>
+        <c:crossAx val="309576840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -457,8 +501,11 @@
     <c:legend>
       <c:legendPos val="r"/>
       <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
@@ -593,7 +640,7 @@
     </a:clrScheme>
     <a:fontScheme name="Стандартная">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -625,9 +672,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -659,6 +707,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -834,14 +883,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B21" sqref="B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.7109375" customWidth="1"/>
     <col min="2" max="2" width="9.5703125" customWidth="1"/>
@@ -849,12 +898,12 @@
     <col min="4" max="4" width="13" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>27</v>
       </c>
@@ -862,7 +911,7 @@
         <v>43901</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>0</v>
       </c>
@@ -876,7 +925,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>1</v>
       </c>
@@ -890,12 +939,12 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
       <c r="B6">
-        <v>9.5</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -904,7 +953,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>4</v>
       </c>
@@ -920,7 +969,7 @@
       </c>
       <c r="H8" s="1"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="1"/>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -930,19 +979,19 @@
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B10" s="1">
-        <v>8.9</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="C10" s="1"/>
       <c r="D10" s="1" t="s">
         <v>2</v>
       </c>
       <c r="E10" s="1">
-        <v>8.5</v>
+        <v>8.2200000000000006</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
@@ -952,7 +1001,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>3</v>
       </c>
@@ -964,23 +1013,24 @@
         <v>3</v>
       </c>
       <c r="E11" s="1">
-        <v>7.8</v>
+        <v>21</v>
       </c>
       <c r="F11" s="1"/>
       <c r="G11" s="1" t="s">
         <v>3</v>
       </c>
       <c r="H11" s="1">
-        <v>9.51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11">
+        <f>25.49</f>
+        <v>25.49</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
         <v>10</v>
       </c>
       <c r="E12">
         <f>E11/E10</f>
-        <v>0.91764705882352937</v>
+        <v>2.554744525547445</v>
       </c>
       <c r="J12" t="s">
         <v>18</v>
@@ -989,7 +1039,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J13" t="s">
         <v>20</v>
       </c>
@@ -997,7 +1047,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>22</v>
       </c>
@@ -1005,7 +1055,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>29</v>
       </c>
@@ -1016,36 +1066,43 @@
         <v>25</v>
       </c>
     </row>
-    <row r="17" spans="1:4">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>16</v>
       </c>
       <c r="B17">
         <f>B6/B10</f>
-        <v>1.0674157303370786</v>
+        <v>2.7303754266211606</v>
       </c>
       <c r="C17" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17">
+        <f>E10*B17</f>
+        <v>22.443686006825942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>17</v>
       </c>
       <c r="B18">
         <f>(E11+B17*E10)/E10</f>
-        <v>1.9850627891606081</v>
+        <v>5.2851199521686061</v>
       </c>
       <c r="C18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:4">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="23" spans="1:4">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="1"/>
       <c r="B23" s="1" t="s">
         <v>4</v>
@@ -1057,56 +1114,57 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:4">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="1">
         <f>B6/B17</f>
-        <v>8.9</v>
+        <v>8.7899999999999991</v>
       </c>
       <c r="C24" s="1">
-        <v>8.5</v>
+        <f>E10</f>
+        <v>8.2200000000000006</v>
       </c>
       <c r="D24" s="1">
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:4">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B25" s="1">
         <f>(B27+B17*B24)/B18</f>
-        <v>4.7857428247985618</v>
+        <v>4.541051143059156</v>
       </c>
       <c r="C25" s="1">
         <f>B6/B18</f>
-        <v>4.7857428247985618</v>
+        <v>4.541051143059156</v>
       </c>
       <c r="D25" s="1">
         <f>(D27+B17*D24)/B18</f>
-        <v>4.7857428247985618</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>4.8229747348574117</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B26" s="1">
         <f>B24+B25</f>
-        <v>13.685742824798563</v>
+        <v>13.331051143059156</v>
       </c>
       <c r="C26" s="1">
         <f>C24+C25</f>
-        <v>13.285742824798561</v>
+        <v>12.761051143059156</v>
       </c>
       <c r="D26" s="1">
         <f>D24+D25</f>
-        <v>4.7857428247985618</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>4.8229747348574117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>15</v>
       </c>
@@ -1114,11 +1172,12 @@
         <v>0</v>
       </c>
       <c r="C27" s="1">
-        <v>7.8</v>
+        <f>E11</f>
+        <v>21</v>
       </c>
       <c r="D27" s="1">
-        <f>B6</f>
-        <v>9.5</v>
+        <f>H11</f>
+        <v>25.49</v>
       </c>
     </row>
   </sheetData>
@@ -1130,24 +1189,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Calculations/Имитатор панели.xlsx
+++ b/Calculations/Имитатор панели.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -12,8 +12,8 @@
     <workbookView xWindow="120" yWindow="15" windowWidth="23820" windowHeight="10620"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="Расчет 5x7 " sheetId="1" r:id="rId1"/>
+    <sheet name="Методика проверки" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
@@ -23,10 +23,10 @@
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Tikhonov Eugene</author>
+    <author>Eugene</author>
   </authors>
   <commentList>
-    <comment ref="B17" authorId="0" shapeId="0">
+    <comment ref="B20" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -37,7 +37,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Tikhonov Eugene:</t>
+          <t>Eugene:</t>
         </r>
         <r>
           <rPr>
@@ -48,11 +48,11 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Udc/Ipv_кз</t>
+Voc - Vmpp</t>
         </r>
       </text>
     </comment>
-    <comment ref="B18" authorId="0" shapeId="0">
+    <comment ref="A21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -63,23 +63,12 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Tikhonov Eugene:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-            <charset val="204"/>
-          </rPr>
-          <t xml:space="preserve">
-из режима Pmax
-(Upv+Rs*Ipv)/Ipv</t>
+          <t>Eugene:
+последовательное сопротивление</t>
         </r>
       </text>
     </comment>
-    <comment ref="B24" authorId="0" shapeId="0">
+    <comment ref="B21" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -90,7 +79,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Tikhonov Eugene:</t>
+          <t>Eugene:</t>
         </r>
         <r>
           <rPr>
@@ -101,11 +90,11 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Udc/Rs</t>
+dU/Impp</t>
         </r>
       </text>
     </comment>
-    <comment ref="B25" authorId="0" shapeId="0">
+    <comment ref="A22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -116,7 +105,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Tikhonov Eugene:</t>
+          <t>Eugene:</t>
         </r>
         <r>
           <rPr>
@@ -127,11 +116,11 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-(Upv + Rs*Ipv)/Rsh</t>
+мощность на Rser</t>
         </r>
       </text>
     </comment>
-    <comment ref="B26" authorId="0" shapeId="0">
+    <comment ref="B22" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -142,7 +131,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Tikhonov Eugene:</t>
+          <t>Eugene:</t>
         </r>
         <r>
           <rPr>
@@ -153,11 +142,11 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Ipv + Ish</t>
+Impp^2 * Rser</t>
         </r>
       </text>
     </comment>
-    <comment ref="D26" authorId="0" shapeId="0">
+    <comment ref="B28" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -168,7 +157,7 @@
             <family val="2"/>
             <charset val="204"/>
           </rPr>
-          <t>Tikhonov Eugene:</t>
+          <t>Eugene:</t>
         </r>
         <r>
           <rPr>
@@ -179,7 +168,137 @@
             <charset val="204"/>
           </rPr>
           <t xml:space="preserve">
-Ipv + Ish</t>
+Vmpp - 0</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B29" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Eugene:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Isc - Impp</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Eugene:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+параллельное сопротивление</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B30" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Eugene:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+dU/dI</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="A31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Eugene:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+мощность на Rpar</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="B31" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t>Eugene:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+            <charset val="204"/>
+          </rPr>
+          <t xml:space="preserve">
+Uoc^2/Rpar</t>
         </r>
       </text>
     </comment>
@@ -188,125 +307,123 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="36">
   <si>
     <t>Rpar=</t>
   </si>
   <si>
-    <t>Rposl=</t>
-  </si>
-  <si>
-    <t>Ipv=</t>
-  </si>
-  <si>
-    <t>Upv=</t>
-  </si>
-  <si>
-    <t>Режим КЗ</t>
-  </si>
-  <si>
-    <t>Режим MAX</t>
-  </si>
-  <si>
-    <t>Режим ХХ</t>
-  </si>
-  <si>
-    <t>Udc=</t>
-  </si>
-  <si>
     <t>V</t>
   </si>
   <si>
     <t>Ohm</t>
   </si>
   <si>
-    <t>Rload=</t>
-  </si>
-  <si>
-    <t>Проверка</t>
-  </si>
-  <si>
-    <t>Ipv</t>
-  </si>
-  <si>
-    <t>Ish</t>
-  </si>
-  <si>
-    <t>Iph</t>
-  </si>
-  <si>
-    <t>Upv</t>
-  </si>
-  <si>
-    <t>Rs=</t>
-  </si>
-  <si>
-    <t>Rsh=</t>
-  </si>
-  <si>
-    <t>Ipv-</t>
-  </si>
-  <si>
-    <t>выходной ток панели</t>
-  </si>
-  <si>
-    <t>Iph-</t>
-  </si>
-  <si>
-    <t>суммарный ток от DC-источника</t>
-  </si>
-  <si>
-    <t>Ish-</t>
-  </si>
-  <si>
-    <t>ток через Rsh</t>
-  </si>
-  <si>
-    <t>Id-</t>
-  </si>
-  <si>
-    <t>ток диода (у нас его нет)</t>
-  </si>
-  <si>
     <t>Расчет имитатора солнечной панели</t>
   </si>
   <si>
     <t>Тихонов Е.Н.</t>
   </si>
   <si>
-    <t>напряжение источника</t>
-  </si>
-  <si>
-    <t>Расчеты:</t>
-  </si>
-  <si>
-    <t>Режим Pmax</t>
-  </si>
-  <si>
-    <t>последовательное</t>
-  </si>
-  <si>
-    <t>параллельное</t>
-  </si>
-  <si>
-    <t>Urs=</t>
+    <t xml:space="preserve">Характеристики </t>
+  </si>
+  <si>
+    <t>Модуль 3x6</t>
+  </si>
+  <si>
+    <t>Модуль 2x7-1 (левый)</t>
+  </si>
+  <si>
+    <t>Модуль 2x7-1 (правый)</t>
+  </si>
+  <si>
+    <t>Модуль 5x7</t>
+  </si>
+  <si>
+    <t>Количество ФЭМ</t>
+  </si>
+  <si>
+    <t>Количество ФЭП</t>
+  </si>
+  <si>
+    <t>Ток короткого замыкания: Isc, А</t>
+  </si>
+  <si>
+    <t>Напряжение холостого хода: Voc, В</t>
+  </si>
+  <si>
+    <t>Ток в рабочей точке: Impp, А</t>
+  </si>
+  <si>
+    <t>Напряжение в рабочей точке: Vmpp, В</t>
+  </si>
+  <si>
+    <t>Мощность в рабочей точке: Pmpp, Вт</t>
+  </si>
+  <si>
+    <t>Коэффициент заполнения: FF, %.</t>
+  </si>
+  <si>
+    <t>Расчеты</t>
+  </si>
+  <si>
+    <t>1. Наклон ВАХ из точки холостого хода Voc в точку Vmpp (напряжение в рабочей точке)</t>
+  </si>
+  <si>
+    <t>dU=</t>
+  </si>
+  <si>
+    <t>dI=</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Rser=</t>
+  </si>
+  <si>
+    <t>Ток холостого хода Ioc, А</t>
+  </si>
+  <si>
+    <t>Напряжение кз: Voc, В</t>
+  </si>
+  <si>
+    <t>Pser=</t>
+  </si>
+  <si>
+    <t>W</t>
+  </si>
+  <si>
+    <t>Ppar=</t>
+  </si>
+  <si>
+    <t>2. Наклон ВАХ из точки КЗ в точку рабочей мощности</t>
+  </si>
+  <si>
+    <t>Методика -</t>
+  </si>
+  <si>
+    <t>1)на источнике U = Voc, I = Iкз .</t>
+  </si>
+  <si>
+    <t>3) По окончанию заряда, ток - уменьшается, напряжение - в ограничении.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2) При заряде АКБ контроллер должен выйти примерно в рабочую точку (21В, 8.2А), </t>
+  </si>
+  <si>
+    <t>источник питания должен переключаться из ограничения по току, в ограничение по напряжению - так проявляется сканирование (или быть просто близок к этой точке).</t>
+  </si>
+  <si>
+    <t>Дмитрий Малевский (dmalevsky@scell.ioffe.ru
+)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <charset val="204"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -329,13 +446,41 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -365,11 +510,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -417,9 +587,169 @@
           <c:tx>
             <c:v>ВАХ</c:v>
           </c:tx>
+          <c:dLbls>
+            <c:dLbl>
+              <c:idx val="0"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="1.3515623981505943E-2"/>
+                  <c:y val="-5.8457222120386135E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{3E6F705B-5A7F-4983-9D74-43F7E4B17DF5}" type="XVALUE">
+                      <a:rPr lang="ru-RU"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{E0526B0D-0ED1-4F79-A7D8-D4207E78BBA8}" type="YVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:t> (КЗ)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="1"/>
+              <c:layout/>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{0C57CE1B-83AD-442B-ADB6-87C358BC9F09}" type="XVALUE">
+                      <a:rPr lang="ru-RU"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{39582870-A725-4B31-BFE0-0282F17EB4F4}" type="YVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:t> (Рабочая точка)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:dLbl>
+              <c:idx val="2"/>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="0"/>
+                  <c:y val="-4.1263921496743156E-2"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:tx>
+                <c:rich>
+                  <a:bodyPr/>
+                  <a:lstStyle/>
+                  <a:p>
+                    <a:fld id="{D6629654-3790-47C4-A5AA-BD1F19D4DD1A}" type="XVALUE">
+                      <a:rPr lang="ru-RU"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ X]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:t>; </a:t>
+                    </a:r>
+                    <a:fld id="{BD76DA53-C696-4628-AEBB-B5CD161021FA}" type="YVALUE">
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:pPr/>
+                      <a:t>[ЗНАЧЕНИЕ Y]</a:t>
+                    </a:fld>
+                    <a:r>
+                      <a:rPr lang="ru-RU" baseline="0"/>
+                      <a:t> (ХХ)</a:t>
+                    </a:r>
+                  </a:p>
+                </c:rich>
+              </c:tx>
+              <c:showLegendKey val="0"/>
+              <c:showVal val="1"/>
+              <c:showCatName val="1"/>
+              <c:showSerName val="0"/>
+              <c:showPercent val="0"/>
+              <c:showBubbleSize val="0"/>
+              <c:extLst>
+                <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                  <c15:layout/>
+                  <c15:dlblFieldTable/>
+                  <c15:showDataLabelsRange val="0"/>
+                </c:ext>
+              </c:extLst>
+            </c:dLbl>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="0"/>
+            <c:showCatName val="1"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$B$27:$D$27</c:f>
+              <c:f>('Расчет 5x7 '!$E$10,'Расчет 5x7 '!$E$12,'Расчет 5x7 '!$E$9)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -427,17 +757,17 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>21</c:v>
+                  <c:v>21.000000000000004</c:v>
                 </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.49</c:v>
+                <c:pt idx="2" formatCode="0.00">
+                  <c:v>25.491666666666664</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$B$24:$D$24</c:f>
+              <c:f>('Расчет 5x7 '!$E$7,'Расчет 5x7 '!$E$11,'Расчет 5x7 '!$E$10)</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -463,46 +793,81 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="309576840"/>
-        <c:axId val="309577232"/>
+        <c:axId val="214988384"/>
+        <c:axId val="214956360"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="309576840"/>
+        <c:axId val="214988384"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>U</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309577232"/>
+        <c:crossAx val="214956360"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="309577232"/>
+        <c:axId val="214956360"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>I</a:t>
+                </a:r>
+                <a:endParaRPr lang="ru-RU"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="309576840"/>
+        <c:crossAx val="214988384"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
     </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:layout/>
-      <c:overlay val="0"/>
-    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:showDLblsOverMax val="0"/>
@@ -519,16 +884,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
-      <xdr:col>9</xdr:col>
+      <xdr:col>6</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>0</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
+      <xdr:col>11</xdr:col>
       <xdr:colOff>390525</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>139552</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>187177</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -546,7 +911,7 @@
       </xdr:blipFill>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="6067425" y="0"/>
+          <a:off x="10296525" y="504825"/>
           <a:ext cx="3429000" cy="1854052"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -566,16 +931,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>266940</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>4642</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>35</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>309843</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -884,305 +1249,323 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K27"/>
+  <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B21" sqref="B21"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
-    <col min="2" max="2" width="9.5703125" customWidth="1"/>
-    <col min="3" max="3" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13" customWidth="1"/>
+    <col min="1" max="1" width="39.5703125" customWidth="1"/>
+    <col min="2" max="2" width="15.28515625" customWidth="1"/>
+    <col min="3" max="3" width="30" customWidth="1"/>
+    <col min="4" max="4" width="30.140625" customWidth="1"/>
+    <col min="5" max="5" width="27.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="1">
+        <v>43958</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B5" s="7">
+        <v>1</v>
+      </c>
+      <c r="C5" s="7">
+        <v>1</v>
+      </c>
+      <c r="D5" s="7">
+        <v>1</v>
+      </c>
+      <c r="E5" s="7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="7">
+        <v>18</v>
+      </c>
+      <c r="C6" s="7">
+        <v>13</v>
+      </c>
+      <c r="D6" s="7">
+        <v>13</v>
+      </c>
+      <c r="E6" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="9">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="C7" s="9">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="D7" s="9">
+        <v>8.7899999999999991</v>
+      </c>
+      <c r="E7" s="9">
+        <v>8.7899999999999991</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B8" s="9">
+        <v>0</v>
+      </c>
+      <c r="C8" s="9">
+        <v>0</v>
+      </c>
+      <c r="D8" s="9">
+        <v>0</v>
+      </c>
+      <c r="E8" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B9" s="9">
+        <v>13.11</v>
+      </c>
+      <c r="C9" s="10">
+        <v>9.4553333333333338</v>
+      </c>
+      <c r="D9" s="10">
+        <v>9.4553333333333338</v>
+      </c>
+      <c r="E9" s="10">
+        <v>25.491666666666664</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="3" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B10" s="9">
+        <v>0</v>
+      </c>
+      <c r="C10" s="9">
+        <v>0</v>
+      </c>
+      <c r="D10" s="9">
+        <v>0</v>
+      </c>
+      <c r="E10" s="9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B11" s="9">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="C11" s="9">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="D11" s="9">
+        <v>8.2200000000000006</v>
+      </c>
+      <c r="E11" s="9">
+        <v>8.2200000000000006</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="9">
+        <v>10.8</v>
+      </c>
+      <c r="C12" s="10">
+        <v>7.8389999999999995</v>
+      </c>
+      <c r="D12" s="9">
+        <v>7.84</v>
+      </c>
+      <c r="E12" s="9">
+        <v>21.000000000000004</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="B13" s="9">
+        <v>88.69</v>
+      </c>
+      <c r="C13" s="10">
+        <v>64.436580000000006</v>
+      </c>
+      <c r="D13" s="10">
+        <v>64.444800000000001</v>
+      </c>
+      <c r="E13" s="9">
+        <v>172.62</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B14" s="9">
+        <v>76.930000000000007</v>
+      </c>
+      <c r="C14" s="9">
+        <v>76.930000000000007</v>
+      </c>
+      <c r="D14" s="9">
+        <v>76.930000000000007</v>
+      </c>
+      <c r="E14" s="9">
+        <v>76.930000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="B20" s="12">
+        <f>E9-E12</f>
+        <v>4.49166666666666</v>
+      </c>
+      <c r="C20" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21">
+        <f>B20/E11</f>
+        <v>0.54643146796431386</v>
+      </c>
+      <c r="C21" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B22">
+        <f>E11^2*B21</f>
+        <v>36.921499999999952</v>
+      </c>
+      <c r="C22" t="s">
         <v>27</v>
       </c>
-      <c r="C2" s="2">
-        <v>43901</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28">
+        <f>E12-0</f>
+        <v>21.000000000000004</v>
+      </c>
+      <c r="C28" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>21</v>
+      </c>
+      <c r="B29">
+        <f>E7-E11</f>
+        <v>0.56999999999999851</v>
+      </c>
+      <c r="C29" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
         <v>0</v>
       </c>
-      <c r="B4">
-        <v>100</v>
-      </c>
-      <c r="C4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>100</v>
-      </c>
-      <c r="C5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>8</v>
-      </c>
-      <c r="D6" t="s">
+      <c r="B30">
+        <f>B28/B29</f>
+        <v>36.842105263157997</v>
+      </c>
+      <c r="C30" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H8" s="1"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B10" s="1">
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E10" s="1">
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H10" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B11" s="1">
-        <v>0</v>
-      </c>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E11" s="1">
-        <v>21</v>
-      </c>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="H11" s="1">
-        <f>25.49</f>
-        <v>25.49</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D12" t="s">
-        <v>10</v>
-      </c>
-      <c r="E12">
-        <f>E11/E10</f>
-        <v>2.554744525547445</v>
-      </c>
-      <c r="J12" t="s">
-        <v>18</v>
-      </c>
-      <c r="K12" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J13" t="s">
-        <v>20</v>
-      </c>
-      <c r="K13" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="J14" t="s">
-        <v>22</v>
-      </c>
-      <c r="K14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="J15" t="s">
-        <v>24</v>
-      </c>
-      <c r="K15" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>16</v>
-      </c>
-      <c r="B17">
-        <f>B6/B10</f>
-        <v>2.7303754266211606</v>
-      </c>
-      <c r="C17" t="s">
-        <v>9</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17">
-        <f>E10*B17</f>
-        <v>22.443686006825942</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="B18">
-        <f>(E11+B17*E10)/E10</f>
-        <v>5.2851199521686061</v>
-      </c>
-      <c r="C18" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="1"/>
-      <c r="B23" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D23" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B24" s="1">
-        <f>B6/B17</f>
-        <v>8.7899999999999991</v>
-      </c>
-      <c r="C24" s="1">
-        <f>E10</f>
-        <v>8.2200000000000006</v>
-      </c>
-      <c r="D24" s="1">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" s="1">
-        <f>(B27+B17*B24)/B18</f>
-        <v>4.541051143059156</v>
-      </c>
-      <c r="C25" s="1">
-        <f>B6/B18</f>
-        <v>4.541051143059156</v>
-      </c>
-      <c r="D25" s="1">
-        <f>(D27+B17*D24)/B18</f>
-        <v>4.8229747348574117</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="1">
-        <f>B24+B25</f>
-        <v>13.331051143059156</v>
-      </c>
-      <c r="C26" s="1">
-        <f>C24+C25</f>
-        <v>12.761051143059156</v>
-      </c>
-      <c r="D26" s="1">
-        <f>D24+D25</f>
-        <v>4.8229747348574117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="1">
-        <v>0</v>
-      </c>
-      <c r="C27" s="1">
-        <f>E11</f>
-        <v>21</v>
-      </c>
-      <c r="D27" s="1">
-        <f>H11</f>
-        <v>25.49</v>
+      <c r="B31" s="3">
+        <f>E9^2/B30</f>
+        <v>17.638109027777723</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
   <drawing r:id="rId2"/>
   <legacyDrawing r:id="rId3"/>
 </worksheet>
@@ -1190,12 +1573,48 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:A10"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" s="13" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" s="13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A10" s="13" t="s">
+        <v>32</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
